--- a/Tema 2/Lab2_evaluationForm.xlsx
+++ b/Tema 2/Lab2_evaluationForm.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21122"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciprian/OneDrive - University of Bucharest, Faculty of Mathematics and Computer Science/Courses/Information retrieval/Lab/Lab 2 - Ranking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alex\Master\Regasirea informatiei\Teme\Tema 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{744FC70B-D08D-4753-99A5-FE92199E3EDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="5400" windowWidth="19580" windowHeight="15600" xr2:uid="{0938438B-D190-8E46-8DB5-8DC50206BB2B}"/>
+    <workbookView xWindow="14016" yWindow="5400" windowWidth="19584" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <r>
       <t>Completed ? (</t>
@@ -58,23 +57,6 @@
     <t>Observations(On this column: write name of file and line of code to look at)</t>
   </si>
   <si>
-    <t>Name 1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Name 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>( leave empty is single persone per project)</t>
-    </r>
-  </si>
-  <si>
     <t>1. Cosine similarity basic</t>
   </si>
   <si>
@@ -97,12 +79,18 @@
   </si>
   <si>
     <t>Autoevaluare nota</t>
+  </si>
+  <si>
+    <t>Radu Ioan-Alexandru</t>
+  </si>
+  <si>
+    <t>main.py 207-250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -127,8 +115,9 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)_x0000_"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,18 +457,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8059AEF-766C-D441-AD02-B1B21E11018B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{DE036F93-3567-5738-B52B-C934806AB096}">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -490,50 +480,57 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -541,15 +538,15 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -557,20 +554,21 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <f>B5*5  + B6*1 + B7*1 + B8*3</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B12" xr:uid="{6F52F8F7-973A-1D44-BAE0-1D58B06C18EE}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B12">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>